--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/10/seed1/result_data_RandomForest.xlsx
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.16520000000002</v>
+        <v>-21.12950000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>4.577900000000001</v>
+        <v>4.496400000000002</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.96569999999999</v>
+        <v>-10.84139999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.8919</v>
+        <v>5.124399999999998</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.5592</v>
+        <v>-21.48820000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.047699999999998</v>
+        <v>4.890300000000001</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.77740000000001</v>
+        <v>-11.76230000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.53990000000002</v>
+        <v>-21.49730000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>4.886700000000002</v>
+        <v>4.827500000000004</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.6444</v>
+        <v>-14.6768</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
